--- a/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -13746,7 +13746,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>82</v>
@@ -16000,7 +16000,7 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>90</v>
@@ -16600,7 +16600,7 @@
         <v>90</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>83</v>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7875" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7875" uniqueCount="1026">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:At least one HumanName with given and family name must be provided. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:If one ore more human names are provided, at least one human name should have a family and a given name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender 'unknown' is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -582,7 +582,7 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -608,10 +608,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier intended for computation</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+    <t>EPR-SPID: The Central Compensation Office (ZAS; CCO) assigns and manages the new patient identification number according to the EPRA (EPR-SPID), which is only linked internally in the CCO with the AHV number. It maintains the UPI identification database (Unique Personal Identifier Database), which the EPR communities may access. The law regulates how the the EPR-SPID can be used. SR 816.111 states (Art. 10 para. 3 EPDV) that communities must ensure that the EPR-SPID number cannot be not stored in document repositories or document registries.</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -636,6 +633,9 @@
   </si>
   <si>
     <t>OASI Number Switzerland</t>
+  </si>
+  <si>
+    <t>The AHVN13 / NAVS13 - (abbreviation for new thirteen-digit Social Security number) - is an administrative identifier for natural persons in Switzerland. It is issued, announced and administered by the Central Compensation Office. It is available to all organisations and communities for which there is a legal basis.</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -892,6 +892,12 @@
 </t>
   </si>
   <si>
+    <t>Insurance card number of the patient (20 digits)</t>
+  </si>
+  <si>
+    <t>Cardnumber Swiss insurance card v1</t>
+  </si>
+  <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="urn:oid:2.16.756.5.30.1.123.100.1.1.1"/&gt;
 &lt;/valueIdentifier&gt;</t>
@@ -969,6 +975,9 @@
 ch-core-hm-1:if officalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is official {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').empty() or (family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').exists() and use='official')}ch-core-hm-2:if orginalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is maiden {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').empty() or ((family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').exists() and use='maiden'))}ch-core-hm-3:ch-ext-ech-11-name can only be put on a family name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()=family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()}ch-core-hm-4:ch-ext-ech-11-firstname can only be put on a given name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()=given.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()}</t>
   </si>
   <si>
+    <t>eCH-0011: nameData</t>
+  </si>
+  <si>
     <t>EN (actually, PN)</t>
   </si>
   <si>
@@ -1418,7 +1427,7 @@
     <t>.telecom</t>
   </si>
   <si>
-    <t>-&gt; as of HL7 v2.7 PID-40 (leave PID-13 and PID-14 empty)</t>
+    <t>PID-13, PID-14, PID-40</t>
   </si>
   <si>
     <t>Patient.telecom:email</t>
@@ -1757,7 +1766,7 @@
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>male | female | other</t>
+    <t>male | female | other | unknown* (* see warning 'ch-pat-2')</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
@@ -1898,7 +1907,7 @@
     <t>home</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Residential address</t>
   </si>
   <si>
     <t>Patient.address:home.id</t>
@@ -2418,7 +2427,7 @@
     <t>Use these values for a Swiss or Liechtenstein address</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-core/ValueSet/ech-7-cantonflabbreviation</t>
+    <t>http://fhir.ch/ig/ch-core/ValueSet/ech-7-cantonabbreviation</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -3576,7 +3585,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.45703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.3046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -5427,10 +5436,10 @@
         <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -5444,7 +5453,7 @@
         <v>83</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>83</v>
@@ -5501,16 +5510,16 @@
         <v>83</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -5518,13 +5527,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>83</v>
@@ -5546,13 +5555,13 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -5623,16 +5632,16 @@
         <v>83</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>83</v>
@@ -6755,10 +6764,10 @@
         <v>276</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -6772,7 +6781,7 @@
         <v>83</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>83</v>
@@ -6829,16 +6838,16 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -6846,13 +6855,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>83</v>
@@ -6874,10 +6883,10 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>178</v>
@@ -6894,7 +6903,7 @@
         <v>83</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>83</v>
@@ -6968,10 +6977,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6994,70 +7003,70 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q29" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -7075,13 +7084,13 @@
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>208</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -7092,10 +7101,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -7118,19 +7127,19 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -7179,7 +7188,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -7191,13 +7200,13 @@
         <v>153</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>83</v>
@@ -7206,7 +7215,7 @@
         <v>83</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>83</v>
@@ -7214,10 +7223,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -7332,10 +7341,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -7450,13 +7459,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>83</v>
@@ -7478,13 +7487,13 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -7570,13 +7579,13 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>83</v>
@@ -7598,13 +7607,13 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -7690,10 +7699,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -7719,16 +7728,16 @@
         <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -7756,10 +7765,10 @@
         <v>221</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>83</v>
@@ -7777,7 +7786,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -7795,7 +7804,7 @@
         <v>83</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>83</v>
@@ -7804,7 +7813,7 @@
         <v>83</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>83</v>
@@ -7812,10 +7821,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -7841,16 +7850,16 @@
         <v>204</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -7899,7 +7908,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -7917,7 +7926,7 @@
         <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>83</v>
@@ -7926,7 +7935,7 @@
         <v>83</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>83</v>
@@ -7934,14 +7943,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -7963,13 +7972,13 @@
         <v>204</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -7992,7 +8001,7 @@
         <v>83</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="X37" t="s" s="2">
         <v>83</v>
@@ -8019,7 +8028,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -8034,10 +8043,10 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>83</v>
@@ -8046,7 +8055,7 @@
         <v>83</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>83</v>
@@ -8054,10 +8063,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -8083,10 +8092,10 @@
         <v>204</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -8172,10 +8181,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -8288,13 +8297,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>83</v>
@@ -8316,13 +8325,13 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -8388,7 +8397,7 @@
         <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>83</v>
@@ -8408,13 +8417,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>83</v>
@@ -8436,13 +8445,13 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -8511,7 +8520,7 @@
         <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>83</v>
@@ -8528,10 +8537,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -8646,10 +8655,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -8764,10 +8773,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -8793,13 +8802,13 @@
         <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -8807,7 +8816,7 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>83</v>
@@ -8849,7 +8858,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>90</v>
@@ -8884,10 +8893,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8913,10 +8922,10 @@
         <v>110</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -8928,7 +8937,7 @@
         <v>83</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>83</v>
@@ -8947,7 +8956,7 @@
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>83</v>
@@ -8965,7 +8974,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -8974,7 +8983,7 @@
         <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>102</v>
@@ -9000,10 +9009,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -9029,10 +9038,10 @@
         <v>204</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -9056,7 +9065,7 @@
         <v>83</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="X46" t="s" s="2">
         <v>83</v>
@@ -9083,7 +9092,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -9118,14 +9127,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -9147,13 +9156,13 @@
         <v>204</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -9176,7 +9185,7 @@
         <v>83</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>83</v>
@@ -9203,7 +9212,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -9218,10 +9227,10 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>83</v>
@@ -9230,7 +9239,7 @@
         <v>83</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>83</v>
@@ -9238,10 +9247,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -9267,10 +9276,10 @@
         <v>204</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -9356,10 +9365,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -9472,13 +9481,13 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>83</v>
@@ -9500,13 +9509,13 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -9572,7 +9581,7 @@
         <v>141</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>83</v>
@@ -9592,13 +9601,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>83</v>
@@ -9620,13 +9629,13 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -9695,7 +9704,7 @@
         <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>83</v>
@@ -9712,10 +9721,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -9830,10 +9839,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9948,10 +9957,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9977,13 +9986,13 @@
         <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9991,7 +10000,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>83</v>
@@ -10033,7 +10042,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>90</v>
@@ -10068,10 +10077,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -10097,10 +10106,10 @@
         <v>110</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -10112,7 +10121,7 @@
         <v>83</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>83</v>
@@ -10131,7 +10140,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -10149,7 +10158,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -10158,7 +10167,7 @@
         <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>102</v>
@@ -10184,10 +10193,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -10213,10 +10222,10 @@
         <v>204</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -10240,7 +10249,7 @@
         <v>83</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="X56" t="s" s="2">
         <v>83</v>
@@ -10267,7 +10276,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -10302,10 +10311,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -10331,10 +10340,10 @@
         <v>204</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -10385,7 +10394,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -10400,10 +10409,10 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>83</v>
@@ -10412,7 +10421,7 @@
         <v>83</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -10420,10 +10429,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -10449,10 +10458,10 @@
         <v>204</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -10538,10 +10547,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10654,13 +10663,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>83</v>
@@ -10682,16 +10691,16 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -10759,7 +10768,7 @@
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>83</v>
@@ -10776,10 +10785,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10805,10 +10814,10 @@
         <v>204</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10832,7 +10841,7 @@
         <v>83</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="X61" t="s" s="2">
         <v>83</v>
@@ -10859,7 +10868,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -10894,10 +10903,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10923,10 +10932,10 @@
         <v>204</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -10977,7 +10986,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -10995,7 +11004,7 @@
         <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>83</v>
@@ -11004,7 +11013,7 @@
         <v>83</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>83</v>
@@ -11012,10 +11021,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -11041,14 +11050,14 @@
         <v>259</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -11097,7 +11106,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -11115,7 +11124,7 @@
         <v>83</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>83</v>
@@ -11124,7 +11133,7 @@
         <v>83</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>83</v>
@@ -11132,10 +11141,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -11158,19 +11167,19 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
@@ -11207,7 +11216,7 @@
         <v>83</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
@@ -11217,7 +11226,7 @@
         <v>139</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -11232,19 +11241,19 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>83</v>
@@ -11252,13 +11261,13 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>83</v>
@@ -11280,19 +11289,19 @@
         <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
@@ -11341,7 +11350,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -11353,13 +11362,13 @@
         <v>153</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>83</v>
@@ -11368,7 +11377,7 @@
         <v>83</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>83</v>
@@ -11376,13 +11385,13 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>83</v>
@@ -11404,19 +11413,19 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -11465,7 +11474,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -11477,13 +11486,13 @@
         <v>153</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>83</v>
@@ -11492,7 +11501,7 @@
         <v>83</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>83</v>
@@ -11500,10 +11509,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -11618,10 +11627,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11738,10 +11747,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11767,10 +11776,10 @@
         <v>110</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -11779,7 +11788,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>83</v>
@@ -11800,10 +11809,10 @@
         <v>221</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -11821,7 +11830,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -11830,16 +11839,16 @@
         <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>83</v>
@@ -11848,7 +11857,7 @@
         <v>83</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>83</v>
@@ -11856,10 +11865,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11885,16 +11894,16 @@
         <v>204</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -11907,7 +11916,7 @@
         <v>83</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>83</v>
@@ -11916,7 +11925,7 @@
         <v>83</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="X70" t="s" s="2">
         <v>83</v>
@@ -11943,7 +11952,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -11958,10 +11967,10 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>83</v>
@@ -11970,7 +11979,7 @@
         <v>83</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>83</v>
@@ -11978,10 +11987,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -12007,16 +12016,16 @@
         <v>110</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -12044,10 +12053,10 @@
         <v>221</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>83</v>
@@ -12065,7 +12074,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -12080,10 +12089,10 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>83</v>
@@ -12092,7 +12101,7 @@
         <v>83</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>83</v>
@@ -12100,10 +12109,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -12129,10 +12138,10 @@
         <v>204</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -12218,10 +12227,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -12334,13 +12343,13 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>83</v>
@@ -12362,13 +12371,13 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -12434,7 +12443,7 @@
         <v>141</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>133</v>
@@ -12454,10 +12463,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -12483,10 +12492,10 @@
         <v>204</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -12537,7 +12546,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -12572,10 +12581,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12598,16 +12607,16 @@
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -12657,7 +12666,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -12692,10 +12701,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12721,10 +12730,10 @@
         <v>259</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -12775,7 +12784,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -12790,10 +12799,10 @@
         <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>83</v>
@@ -12810,10 +12819,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12928,10 +12937,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -13048,10 +13057,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -13074,16 +13083,16 @@
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -13133,7 +13142,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -13142,16 +13151,16 @@
         <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>83</v>
@@ -13160,7 +13169,7 @@
         <v>83</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>83</v>
@@ -13168,10 +13177,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -13194,23 +13203,23 @@
         <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q81" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="R81" t="s" s="2">
         <v>83</v>
@@ -13255,7 +13264,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -13264,16 +13273,16 @@
         <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>83</v>
@@ -13282,7 +13291,7 @@
         <v>83</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>83</v>
@@ -13290,13 +13299,13 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>83</v>
@@ -13318,19 +13327,19 @@
         <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -13379,7 +13388,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -13391,13 +13400,13 @@
         <v>153</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>83</v>
@@ -13406,7 +13415,7 @@
         <v>83</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>83</v>
@@ -13414,10 +13423,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13443,16 +13452,16 @@
         <v>110</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>83</v>
@@ -13480,10 +13489,10 @@
         <v>221</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>83</v>
@@ -13501,7 +13510,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -13516,19 +13525,19 @@
         <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>83</v>
@@ -13536,10 +13545,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13562,19 +13571,19 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>83</v>
@@ -13623,7 +13632,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -13635,33 +13644,33 @@
         <v>83</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13684,19 +13693,19 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
@@ -13745,7 +13754,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -13760,10 +13769,10 @@
         <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>208</v>
@@ -13772,7 +13781,7 @@
         <v>83</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>83</v>
@@ -13780,10 +13789,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13806,19 +13815,19 @@
         <v>83</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -13855,7 +13864,7 @@
         <v>83</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="AC86" s="2"/>
       <c r="AD86" t="s" s="2">
@@ -13865,7 +13874,7 @@
         <v>139</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -13877,13 +13886,13 @@
         <v>153</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>83</v>
@@ -13892,7 +13901,7 @@
         <v>83</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>83</v>
@@ -13900,13 +13909,13 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>83</v>
@@ -13928,19 +13937,19 @@
         <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
@@ -13989,7 +13998,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -14001,13 +14010,13 @@
         <v>153</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>83</v>
@@ -14016,7 +14025,7 @@
         <v>83</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>83</v>
@@ -14024,10 +14033,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -14142,10 +14151,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -14262,10 +14271,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -14291,16 +14300,16 @@
         <v>110</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -14310,10 +14319,10 @@
         <v>83</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>83</v>
@@ -14328,10 +14337,10 @@
         <v>221</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -14349,7 +14358,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -14367,7 +14376,7 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>83</v>
@@ -14376,7 +14385,7 @@
         <v>83</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>83</v>
@@ -14384,10 +14393,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -14413,13 +14422,13 @@
         <v>110</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -14433,7 +14442,7 @@
         <v>83</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>83</v>
@@ -14448,10 +14457,10 @@
         <v>221</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>83</v>
@@ -14469,7 +14478,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -14487,7 +14496,7 @@
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>83</v>
@@ -14496,7 +14505,7 @@
         <v>83</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>83</v>
@@ -14504,10 +14513,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -14533,16 +14542,16 @@
         <v>204</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
@@ -14555,7 +14564,7 @@
         <v>83</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>83</v>
@@ -14591,7 +14600,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -14609,7 +14618,7 @@
         <v>83</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>83</v>
@@ -14618,7 +14627,7 @@
         <v>83</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>83</v>
@@ -14626,10 +14635,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14655,10 +14664,10 @@
         <v>204</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -14673,7 +14682,7 @@
         <v>83</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>83</v>
@@ -14709,7 +14718,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -14727,7 +14736,7 @@
         <v>83</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>83</v>
@@ -14736,7 +14745,7 @@
         <v>83</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>83</v>
@@ -14744,10 +14753,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14773,10 +14782,10 @@
         <v>204</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -14862,10 +14871,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14933,7 +14942,7 @@
         <v>83</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="AC95" s="2"/>
       <c r="AD95" t="s" s="2">
@@ -14978,13 +14987,13 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>83</v>
@@ -15006,13 +15015,13 @@
         <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -15078,7 +15087,7 @@
         <v>141</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>83</v>
@@ -15098,10 +15107,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -15216,10 +15225,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -15334,10 +15343,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -15363,13 +15372,13 @@
         <v>104</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -15377,7 +15386,7 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>83</v>
@@ -15419,7 +15428,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>90</v>
@@ -15454,10 +15463,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -15483,10 +15492,10 @@
         <v>110</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -15525,17 +15534,17 @@
         <v>83</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="AC100" s="2"/>
       <c r="AD100" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -15570,13 +15579,13 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>83</v>
@@ -15601,10 +15610,10 @@
         <v>110</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -15613,7 +15622,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>83</v>
@@ -15634,10 +15643,10 @@
         <v>233</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>83</v>
@@ -15655,7 +15664,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -15690,13 +15699,13 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>83</v>
@@ -15718,13 +15727,13 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -15790,7 +15799,7 @@
         <v>141</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>83</v>
@@ -15810,10 +15819,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15928,10 +15937,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -16046,10 +16055,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -16075,13 +16084,13 @@
         <v>104</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -16089,7 +16098,7 @@
       </c>
       <c r="Q105" s="2"/>
       <c r="R105" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="S105" t="s" s="2">
         <v>83</v>
@@ -16131,7 +16140,7 @@
         <v>83</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>90</v>
@@ -16166,10 +16175,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -16195,10 +16204,10 @@
         <v>110</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -16237,17 +16246,17 @@
         <v>83</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -16282,13 +16291,13 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>83</v>
@@ -16313,10 +16322,10 @@
         <v>110</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -16325,7 +16334,7 @@
       </c>
       <c r="Q107" s="2"/>
       <c r="R107" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="S107" t="s" s="2">
         <v>83</v>
@@ -16346,10 +16355,10 @@
         <v>233</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>83</v>
@@ -16367,7 +16376,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -16402,13 +16411,13 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>83</v>
@@ -16430,13 +16439,13 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="L108" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -16502,7 +16511,7 @@
         <v>141</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>83</v>
@@ -16522,10 +16531,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16640,10 +16649,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16758,10 +16767,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16787,13 +16796,13 @@
         <v>104</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -16801,7 +16810,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>83</v>
@@ -16843,7 +16852,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>90</v>
@@ -16878,10 +16887,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16907,10 +16916,10 @@
         <v>110</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16949,17 +16958,17 @@
         <v>83</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="AC112" s="2"/>
       <c r="AD112" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -16994,13 +17003,13 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>83</v>
@@ -17025,10 +17034,10 @@
         <v>110</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -17037,7 +17046,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>83</v>
@@ -17058,10 +17067,10 @@
         <v>233</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>83</v>
@@ -17079,7 +17088,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -17114,13 +17123,13 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>83</v>
@@ -17142,13 +17151,13 @@
         <v>83</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -17217,7 +17226,7 @@
         <v>83</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>83</v>
@@ -17234,10 +17243,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -17352,10 +17361,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -17470,10 +17479,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -17499,13 +17508,13 @@
         <v>104</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -17513,7 +17522,7 @@
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="S117" t="s" s="2">
         <v>83</v>
@@ -17555,7 +17564,7 @@
         <v>83</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>90</v>
@@ -17590,10 +17599,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17619,10 +17628,10 @@
         <v>204</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17646,7 +17655,7 @@
         <v>83</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="X118" t="s" s="2">
         <v>83</v>
@@ -17673,7 +17682,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -17682,7 +17691,7 @@
         <v>90</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>102</v>
@@ -17708,13 +17717,13 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>83</v>
@@ -17736,13 +17745,13 @@
         <v>83</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -17811,7 +17820,7 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>83</v>
@@ -17828,10 +17837,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17946,10 +17955,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -18064,10 +18073,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -18093,13 +18102,13 @@
         <v>104</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -18107,7 +18116,7 @@
       </c>
       <c r="Q122" s="2"/>
       <c r="R122" t="s" s="2">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>83</v>
@@ -18149,7 +18158,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>90</v>
@@ -18184,10 +18193,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -18213,10 +18222,10 @@
         <v>204</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -18240,7 +18249,7 @@
         <v>83</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="X123" t="s" s="2">
         <v>83</v>
@@ -18267,7 +18276,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -18276,7 +18285,7 @@
         <v>90</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>102</v>
@@ -18302,13 +18311,13 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D124" t="s" s="2">
         <v>83</v>
@@ -18330,13 +18339,13 @@
         <v>83</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -18402,10 +18411,10 @@
         <v>141</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>83</v>
@@ -18422,13 +18431,13 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>83</v>
@@ -18450,13 +18459,13 @@
         <v>83</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -18522,7 +18531,7 @@
         <v>141</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>83</v>
@@ -18542,10 +18551,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18660,10 +18669,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18778,10 +18787,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18807,13 +18816,13 @@
         <v>104</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -18821,7 +18830,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>83</v>
@@ -18863,7 +18872,7 @@
         <v>83</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>90</v>
@@ -18898,10 +18907,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18927,10 +18936,10 @@
         <v>110</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -18969,17 +18978,17 @@
         <v>83</v>
       </c>
       <c r="AB129" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="AC129" s="2"/>
       <c r="AD129" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>81</v>
@@ -19014,13 +19023,13 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>83</v>
@@ -19045,10 +19054,10 @@
         <v>110</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -19057,7 +19066,7 @@
       </c>
       <c r="Q130" s="2"/>
       <c r="R130" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>83</v>
@@ -19078,10 +19087,10 @@
         <v>233</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>83</v>
@@ -19099,7 +19108,7 @@
         <v>83</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>81</v>
@@ -19134,13 +19143,13 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>83</v>
@@ -19162,13 +19171,13 @@
         <v>83</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -19234,10 +19243,10 @@
         <v>141</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>83</v>
@@ -19254,10 +19263,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -19283,10 +19292,10 @@
         <v>204</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -19310,7 +19319,7 @@
         <v>83</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="X132" t="s" s="2">
         <v>83</v>
@@ -19337,7 +19346,7 @@
         <v>83</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>81</v>
@@ -19372,14 +19381,14 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -19401,10 +19410,10 @@
         <v>204</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -19419,7 +19428,7 @@
         <v>83</v>
       </c>
       <c r="T133" t="s" s="2">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="U133" t="s" s="2">
         <v>83</v>
@@ -19428,7 +19437,7 @@
         <v>83</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="X133" t="s" s="2">
         <v>83</v>
@@ -19455,7 +19464,7 @@
         <v>83</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>81</v>
@@ -19470,10 +19479,10 @@
         <v>102</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>83</v>
@@ -19482,7 +19491,7 @@
         <v>83</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="AP133" t="s" s="2">
         <v>83</v>
@@ -19490,10 +19499,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19519,10 +19528,10 @@
         <v>204</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -19608,10 +19617,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19724,13 +19733,13 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>83</v>
@@ -19752,13 +19761,13 @@
         <v>83</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="L136" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -19844,10 +19853,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19873,10 +19882,10 @@
         <v>204</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -19900,7 +19909,7 @@
         <v>83</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="X137" t="s" s="2">
         <v>83</v>
@@ -19927,7 +19936,7 @@
         <v>83</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>81</v>
@@ -19962,14 +19971,14 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
@@ -19991,13 +20000,13 @@
         <v>204</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
@@ -20011,7 +20020,7 @@
         <v>83</v>
       </c>
       <c r="T138" t="s" s="2">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="U138" t="s" s="2">
         <v>83</v>
@@ -20047,7 +20056,7 @@
         <v>83</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>81</v>
@@ -20062,10 +20071,10 @@
         <v>102</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>83</v>
@@ -20074,7 +20083,7 @@
         <v>83</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>83</v>
@@ -20082,14 +20091,14 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
@@ -20111,10 +20120,10 @@
         <v>204</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -20141,13 +20150,13 @@
         <v>83</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>83</v>
@@ -20165,7 +20174,7 @@
         <v>83</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>81</v>
@@ -20180,10 +20189,10 @@
         <v>102</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>83</v>
@@ -20192,7 +20201,7 @@
         <v>83</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>83</v>
@@ -20200,14 +20209,14 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -20229,10 +20238,10 @@
         <v>204</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -20247,7 +20256,7 @@
         <v>83</v>
       </c>
       <c r="T140" t="s" s="2">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="U140" t="s" s="2">
         <v>83</v>
@@ -20256,7 +20265,7 @@
         <v>83</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="X140" t="s" s="2">
         <v>83</v>
@@ -20283,7 +20292,7 @@
         <v>83</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>81</v>
@@ -20298,10 +20307,10 @@
         <v>102</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>83</v>
@@ -20310,7 +20319,7 @@
         <v>83</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>83</v>
@@ -20318,10 +20327,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -20347,13 +20356,13 @@
         <v>204</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -20403,7 +20412,7 @@
         <v>83</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>81</v>
@@ -20418,10 +20427,10 @@
         <v>102</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>83</v>
@@ -20430,7 +20439,7 @@
         <v>83</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>83</v>
@@ -20438,10 +20447,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20467,10 +20476,10 @@
         <v>204</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -20556,10 +20565,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20672,13 +20681,13 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>83</v>
@@ -20700,13 +20709,13 @@
         <v>83</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -20769,13 +20778,13 @@
         <v>153</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>83</v>
@@ -20792,10 +20801,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20821,10 +20830,10 @@
         <v>204</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -20848,7 +20857,7 @@
         <v>83</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="X145" t="s" s="2">
         <v>83</v>
@@ -20875,7 +20884,7 @@
         <v>83</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>81</v>
@@ -20910,10 +20919,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20939,14 +20948,14 @@
         <v>259</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>83</v>
@@ -20959,7 +20968,7 @@
         <v>83</v>
       </c>
       <c r="T146" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="U146" t="s" s="2">
         <v>83</v>
@@ -20995,7 +21004,7 @@
         <v>83</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>81</v>
@@ -21013,7 +21022,7 @@
         <v>83</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>83</v>
@@ -21022,7 +21031,7 @@
         <v>83</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="AP146" t="s" s="2">
         <v>83</v>
@@ -21030,10 +21039,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -21059,14 +21068,14 @@
         <v>228</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>83</v>
@@ -21095,7 +21104,7 @@
       </c>
       <c r="Y147" s="2"/>
       <c r="Z147" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>83</v>
@@ -21113,7 +21122,7 @@
         <v>83</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>81</v>
@@ -21128,19 +21137,19 @@
         <v>102</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>83</v>
@@ -21148,10 +21157,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -21266,10 +21275,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -21386,13 +21395,13 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D150" t="s" s="2">
         <v>83</v>
@@ -21414,13 +21423,13 @@
         <v>83</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -21486,7 +21495,7 @@
         <v>141</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>83</v>
@@ -21506,10 +21515,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21532,19 +21541,19 @@
         <v>91</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>83</v>
@@ -21593,7 +21602,7 @@
         <v>83</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>81</v>
@@ -21611,7 +21620,7 @@
         <v>83</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>83</v>
@@ -21620,7 +21629,7 @@
         <v>83</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>83</v>
@@ -21628,10 +21637,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21657,16 +21666,16 @@
         <v>204</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>83</v>
@@ -21715,7 +21724,7 @@
         <v>83</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>81</v>
@@ -21733,7 +21742,7 @@
         <v>83</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>83</v>
@@ -21742,7 +21751,7 @@
         <v>83</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>83</v>
@@ -21750,10 +21759,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21776,19 +21785,19 @@
         <v>83</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>83</v>
@@ -21837,7 +21846,7 @@
         <v>83</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>81</v>
@@ -21855,7 +21864,7 @@
         <v>83</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>208</v>
@@ -21864,7 +21873,7 @@
         <v>83</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>83</v>
@@ -21872,10 +21881,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21898,19 +21907,19 @@
         <v>83</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>83</v>
@@ -21959,7 +21968,7 @@
         <v>83</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>81</v>
@@ -21977,7 +21986,7 @@
         <v>83</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>208</v>
@@ -21986,7 +21995,7 @@
         <v>83</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="AP154" t="s" s="2">
         <v>83</v>
@@ -21994,10 +22003,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -22020,19 +22029,19 @@
         <v>83</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>83</v>
@@ -22069,7 +22078,7 @@
         <v>83</v>
       </c>
       <c r="AB155" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="AC155" s="2"/>
       <c r="AD155" t="s" s="2">
@@ -22079,7 +22088,7 @@
         <v>139</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>81</v>
@@ -22091,13 +22100,13 @@
         <v>83</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>208</v>
@@ -22114,10 +22123,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -22232,10 +22241,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -22352,14 +22361,14 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -22381,10 +22390,10 @@
         <v>135</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>172</v>
@@ -22439,7 +22448,7 @@
         <v>83</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>81</v>
@@ -22474,10 +22483,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22503,14 +22512,14 @@
         <v>228</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>83</v>
@@ -22538,10 +22547,10 @@
         <v>233</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="AA159" t="s" s="2">
         <v>83</v>
@@ -22559,7 +22568,7 @@
         <v>83</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>81</v>
@@ -22577,7 +22586,7 @@
         <v>83</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>208</v>
@@ -22586,7 +22595,7 @@
         <v>83</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>83</v>
@@ -22594,10 +22603,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22620,17 +22629,17 @@
         <v>83</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>83</v>
@@ -22679,7 +22688,7 @@
         <v>83</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>81</v>
@@ -22697,7 +22706,7 @@
         <v>83</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>208</v>
@@ -22706,7 +22715,7 @@
         <v>83</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="AP160" t="s" s="2">
         <v>83</v>
@@ -22714,10 +22723,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22740,19 +22749,19 @@
         <v>83</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>83</v>
@@ -22801,7 +22810,7 @@
         <v>83</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>81</v>
@@ -22819,7 +22828,7 @@
         <v>83</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>208</v>
@@ -22828,7 +22837,7 @@
         <v>83</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>83</v>
@@ -22836,10 +22845,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22862,17 +22871,17 @@
         <v>83</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>83</v>
@@ -22921,7 +22930,7 @@
         <v>83</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>81</v>
@@ -22939,7 +22948,7 @@
         <v>83</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>208</v>
@@ -22948,7 +22957,7 @@
         <v>83</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>83</v>
@@ -22956,10 +22965,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22985,14 +22994,14 @@
         <v>110</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>83</v>
@@ -23020,10 +23029,10 @@
         <v>221</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>83</v>
@@ -23041,7 +23050,7 @@
         <v>83</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>81</v>
@@ -23059,7 +23068,7 @@
         <v>83</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>208</v>
@@ -23068,7 +23077,7 @@
         <v>83</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>83</v>
@@ -23076,10 +23085,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -23105,14 +23114,14 @@
         <v>267</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>83</v>
@@ -23161,7 +23170,7 @@
         <v>83</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>81</v>
@@ -23170,7 +23179,7 @@
         <v>90</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>102</v>
@@ -23179,7 +23188,7 @@
         <v>83</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>208</v>
@@ -23188,7 +23197,7 @@
         <v>83</v>
       </c>
       <c r="AO164" t="s" s="2">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="AP164" t="s" s="2">
         <v>83</v>
@@ -23196,10 +23205,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -23225,10 +23234,10 @@
         <v>259</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -23279,7 +23288,7 @@
         <v>83</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>81</v>
@@ -23297,7 +23306,7 @@
         <v>83</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>208</v>
@@ -23314,13 +23323,13 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="D166" t="s" s="2">
         <v>83</v>
@@ -23342,19 +23351,19 @@
         <v>83</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>83</v>
@@ -23403,7 +23412,7 @@
         <v>83</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>81</v>
@@ -23415,13 +23424,13 @@
         <v>83</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>208</v>
@@ -23438,10 +23447,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23556,10 +23565,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23676,14 +23685,14 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
@@ -23705,10 +23714,10 @@
         <v>135</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>172</v>
@@ -23763,7 +23772,7 @@
         <v>83</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>81</v>
@@ -23798,10 +23807,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23827,14 +23836,14 @@
         <v>228</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>83</v>
@@ -23844,7 +23853,7 @@
         <v>83</v>
       </c>
       <c r="S170" t="s" s="2">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="T170" t="s" s="2">
         <v>83</v>
@@ -23862,10 +23871,10 @@
         <v>233</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="Z170" t="s" s="2">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>83</v>
@@ -23883,7 +23892,7 @@
         <v>83</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>81</v>
@@ -23901,7 +23910,7 @@
         <v>83</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>208</v>
@@ -23910,7 +23919,7 @@
         <v>83</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>83</v>
@@ -23918,10 +23927,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23944,17 +23953,17 @@
         <v>83</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>83</v>
@@ -24003,7 +24012,7 @@
         <v>83</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>81</v>
@@ -24021,7 +24030,7 @@
         <v>83</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>208</v>
@@ -24030,7 +24039,7 @@
         <v>83</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="AP171" t="s" s="2">
         <v>83</v>
@@ -24038,10 +24047,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -24064,19 +24073,19 @@
         <v>83</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>83</v>
@@ -24125,7 +24134,7 @@
         <v>83</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>81</v>
@@ -24143,7 +24152,7 @@
         <v>83</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>208</v>
@@ -24152,7 +24161,7 @@
         <v>83</v>
       </c>
       <c r="AO172" t="s" s="2">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="AP172" t="s" s="2">
         <v>83</v>
@@ -24160,10 +24169,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -24186,19 +24195,19 @@
         <v>83</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>83</v>
@@ -24247,7 +24256,7 @@
         <v>83</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>81</v>
@@ -24259,13 +24268,13 @@
         <v>153</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>83</v>
@@ -24274,7 +24283,7 @@
         <v>83</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="AP173" t="s" s="2">
         <v>83</v>
@@ -24282,10 +24291,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24311,14 +24320,14 @@
         <v>110</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>83</v>
@@ -24346,10 +24355,10 @@
         <v>221</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="Z174" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="AA174" t="s" s="2">
         <v>83</v>
@@ -24367,7 +24376,7 @@
         <v>83</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>81</v>
@@ -24385,7 +24394,7 @@
         <v>83</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>208</v>
@@ -24394,7 +24403,7 @@
         <v>83</v>
       </c>
       <c r="AO174" t="s" s="2">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="AP174" t="s" s="2">
         <v>83</v>
@@ -24402,10 +24411,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24431,14 +24440,14 @@
         <v>267</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>83</v>
@@ -24487,7 +24496,7 @@
         <v>83</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>81</v>
@@ -24496,7 +24505,7 @@
         <v>90</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>102</v>
@@ -24505,7 +24514,7 @@
         <v>83</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>208</v>
@@ -24514,7 +24523,7 @@
         <v>83</v>
       </c>
       <c r="AO175" t="s" s="2">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="AP175" t="s" s="2">
         <v>83</v>
@@ -24522,10 +24531,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24551,10 +24560,10 @@
         <v>259</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -24605,7 +24614,7 @@
         <v>83</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>81</v>
@@ -24623,7 +24632,7 @@
         <v>83</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>208</v>
@@ -24640,13 +24649,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>83</v>
@@ -24668,19 +24677,19 @@
         <v>83</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>83</v>
@@ -24729,7 +24738,7 @@
         <v>83</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>81</v>
@@ -24741,13 +24750,13 @@
         <v>83</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>208</v>
@@ -24764,10 +24773,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24882,10 +24891,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -25002,14 +25011,14 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" t="s" s="2">
@@ -25031,10 +25040,10 @@
         <v>135</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="N180" t="s" s="2">
         <v>172</v>
@@ -25089,7 +25098,7 @@
         <v>83</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>81</v>
@@ -25124,10 +25133,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -25153,14 +25162,14 @@
         <v>228</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>83</v>
@@ -25170,7 +25179,7 @@
         <v>83</v>
       </c>
       <c r="S181" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="T181" t="s" s="2">
         <v>83</v>
@@ -25188,10 +25197,10 @@
         <v>233</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="Z181" t="s" s="2">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="AA181" t="s" s="2">
         <v>83</v>
@@ -25209,7 +25218,7 @@
         <v>83</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>81</v>
@@ -25227,7 +25236,7 @@
         <v>83</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>208</v>
@@ -25236,7 +25245,7 @@
         <v>83</v>
       </c>
       <c r="AO181" t="s" s="2">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="AP181" t="s" s="2">
         <v>83</v>
@@ -25244,10 +25253,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -25270,17 +25279,17 @@
         <v>83</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>83</v>
@@ -25329,7 +25338,7 @@
         <v>83</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>81</v>
@@ -25347,7 +25356,7 @@
         <v>83</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>208</v>
@@ -25356,7 +25365,7 @@
         <v>83</v>
       </c>
       <c r="AO182" t="s" s="2">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="AP182" t="s" s="2">
         <v>83</v>
@@ -25364,10 +25373,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25390,19 +25399,19 @@
         <v>83</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>83</v>
@@ -25451,7 +25460,7 @@
         <v>83</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>81</v>
@@ -25469,7 +25478,7 @@
         <v>83</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>208</v>
@@ -25478,7 +25487,7 @@
         <v>83</v>
       </c>
       <c r="AO183" t="s" s="2">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>83</v>
@@ -25486,10 +25495,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25512,17 +25521,17 @@
         <v>83</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" t="s" s="2">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>83</v>
@@ -25571,7 +25580,7 @@
         <v>83</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>81</v>
@@ -25589,7 +25598,7 @@
         <v>83</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>208</v>
@@ -25598,7 +25607,7 @@
         <v>83</v>
       </c>
       <c r="AO184" t="s" s="2">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>83</v>
@@ -25606,10 +25615,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25635,14 +25644,14 @@
         <v>110</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>83</v>
@@ -25670,10 +25679,10 @@
         <v>221</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="Z185" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="AA185" t="s" s="2">
         <v>83</v>
@@ -25691,7 +25700,7 @@
         <v>83</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>81</v>
@@ -25709,7 +25718,7 @@
         <v>83</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>208</v>
@@ -25718,7 +25727,7 @@
         <v>83</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>83</v>
@@ -25726,10 +25735,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25755,14 +25764,14 @@
         <v>267</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>83</v>
@@ -25811,7 +25820,7 @@
         <v>83</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>81</v>
@@ -25820,7 +25829,7 @@
         <v>90</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="AJ186" t="s" s="2">
         <v>102</v>
@@ -25829,7 +25838,7 @@
         <v>83</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>208</v>
@@ -25838,7 +25847,7 @@
         <v>83</v>
       </c>
       <c r="AO186" t="s" s="2">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="AP186" t="s" s="2">
         <v>83</v>
@@ -25846,10 +25855,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25875,10 +25884,10 @@
         <v>259</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -25929,7 +25938,7 @@
         <v>83</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>81</v>
@@ -25947,7 +25956,7 @@
         <v>83</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>208</v>
@@ -25964,10 +25973,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25990,19 +25999,19 @@
         <v>83</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>83</v>
@@ -26039,7 +26048,7 @@
         <v>83</v>
       </c>
       <c r="AB188" t="s" s="2">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="AC188" s="2"/>
       <c r="AD188" t="s" s="2">
@@ -26049,7 +26058,7 @@
         <v>139</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>81</v>
@@ -26067,10 +26076,10 @@
         <v>83</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>83</v>
@@ -26084,10 +26093,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -26202,10 +26211,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -26322,14 +26331,14 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" t="s" s="2">
@@ -26351,10 +26360,10 @@
         <v>135</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="N191" t="s" s="2">
         <v>172</v>
@@ -26409,7 +26418,7 @@
         <v>83</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>81</v>
@@ -26444,10 +26453,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26473,16 +26482,16 @@
         <v>228</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="O192" t="s" s="2">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>83</v>
@@ -26531,7 +26540,7 @@
         <v>83</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>90</v>
@@ -26549,16 +26558,16 @@
         <v>83</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO192" t="s" s="2">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="AP192" t="s" s="2">
         <v>83</v>
@@ -26566,10 +26575,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26592,19 +26601,19 @@
         <v>83</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>83</v>
@@ -26653,7 +26662,7 @@
         <v>83</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>81</v>
@@ -26671,16 +26680,16 @@
         <v>83</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="AM193" t="s" s="2">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="AN193" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO193" t="s" s="2">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="AP193" t="s" s="2">
         <v>83</v>
@@ -26688,13 +26697,13 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="D194" t="s" s="2">
         <v>83</v>
@@ -26716,19 +26725,19 @@
         <v>83</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>83</v>
@@ -26777,7 +26786,7 @@
         <v>83</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>81</v>
@@ -26792,13 +26801,13 @@
         <v>102</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="AN194" t="s" s="2">
         <v>83</v>
@@ -26812,10 +26821,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26930,10 +26939,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -27050,14 +27059,14 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" t="s" s="2">
@@ -27079,10 +27088,10 @@
         <v>135</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="N197" t="s" s="2">
         <v>172</v>
@@ -27137,7 +27146,7 @@
         <v>83</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>81</v>
@@ -27172,10 +27181,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -27201,16 +27210,16 @@
         <v>228</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>83</v>
@@ -27259,7 +27268,7 @@
         <v>83</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>90</v>
@@ -27277,16 +27286,16 @@
         <v>83</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="AN198" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO198" t="s" s="2">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="AP198" t="s" s="2">
         <v>83</v>
@@ -27294,10 +27303,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -27320,26 +27329,26 @@
         <v>83</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q199" s="2"/>
       <c r="R199" t="s" s="2">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="S199" t="s" s="2">
         <v>83</v>
@@ -27381,7 +27390,7 @@
         <v>83</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>81</v>
@@ -27399,16 +27408,16 @@
         <v>83</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO199" t="s" s="2">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="AP199" t="s" s="2">
         <v>83</v>
@@ -27416,14 +27425,14 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
@@ -27442,16 +27451,16 @@
         <v>83</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O200" s="2"/>
       <c r="P200" t="s" s="2">
@@ -27501,7 +27510,7 @@
         <v>83</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>81</v>
@@ -27519,7 +27528,7 @@
         <v>83</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>208</v>
@@ -27528,7 +27537,7 @@
         <v>83</v>
       </c>
       <c r="AO200" t="s" s="2">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="AP200" t="s" s="2">
         <v>83</v>
@@ -27536,10 +27545,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27565,16 +27574,16 @@
         <v>267</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="O201" t="s" s="2">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>83</v>
@@ -27623,7 +27632,7 @@
         <v>83</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>81</v>
@@ -27641,10 +27650,10 @@
         <v>83</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>83</v>
@@ -27658,10 +27667,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27684,19 +27693,19 @@
         <v>91</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="O202" t="s" s="2">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="P202" t="s" s="2">
         <v>83</v>
@@ -27745,7 +27754,7 @@
         <v>83</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>81</v>
@@ -27763,7 +27772,7 @@
         <v>83</v>
       </c>
       <c r="AL202" t="s" s="2">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="AM202" t="s" s="2">
         <v>208</v>
@@ -27780,10 +27789,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27898,10 +27907,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -28018,14 +28027,14 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" t="s" s="2">
@@ -28047,10 +28056,10 @@
         <v>135</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="N205" t="s" s="2">
         <v>172</v>
@@ -28105,7 +28114,7 @@
         <v>83</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>81</v>
@@ -28140,10 +28149,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -28166,16 +28175,16 @@
         <v>91</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
@@ -28225,7 +28234,7 @@
         <v>83</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>90</v>
@@ -28252,7 +28261,7 @@
         <v>83</v>
       </c>
       <c r="AO206" t="s" s="2">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="AP206" t="s" s="2">
         <v>83</v>
@@ -28260,10 +28269,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -28289,10 +28298,10 @@
         <v>110</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -28322,28 +28331,28 @@
         <v>221</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="Z207" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="AA207" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB207" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC207" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD207" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE207" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF207" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="AA207" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB207" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC207" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD207" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE207" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF207" t="s" s="2">
-        <v>1018</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>90</v>
@@ -28361,7 +28370,7 @@
         <v>83</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="AM207" t="s" s="2">
         <v>208</v>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5644,7 +5644,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>190</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>278</v>
       </c>
@@ -17606,7 +17606,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>633</v>
       </c>
@@ -23078,7 +23078,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="163" hidden="true">
+    <row r="163">
       <c r="A163" t="s" s="2">
         <v>765</v>
       </c>
@@ -23788,7 +23788,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="169" hidden="true">
+    <row r="169">
       <c r="A169" t="s" s="2">
         <v>797</v>
       </c>
@@ -23906,7 +23906,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="170" hidden="true">
+    <row r="170">
       <c r="A170" t="s" s="2">
         <v>808</v>
       </c>
@@ -24024,7 +24024,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="171" hidden="true">
+    <row r="171">
       <c r="A171" t="s" s="2">
         <v>818</v>
       </c>
@@ -32556,12 +32556,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP241">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -996,7 +996,7 @@
     <t>CH ELM Extension: VCT Code</t>
   </si>
   <si>
-    <t>This CH ELM extension enables to proivde the VCT Code.</t>
+    <t>This CH ELM extension enables to provide the VCT Code.</t>
   </si>
   <si>
     <t>Patient.name.extension:hivcode</t>
@@ -1012,7 +1012,7 @@
     <t>CH ELM Extension: HIV Code</t>
   </si>
   <si>
-    <t>This CH ELM extension enables to proivde the HIV Code.</t>
+    <t>This CH ELM extension enables to provide the HIV Code.</t>
   </si>
   <si>
     <t>Patient.name.use</t>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientHIV.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
